--- a/整合結果/EPU匯出結果/2025-06-11/2025-06-11_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-11/2025-06-11_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$14:$A$15</f>
+              <f>'Sheet1'!$A$17:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$14:$B$15</f>
+              <f>'Sheet1'!$B$17:$B$18</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>16</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,42 +929,143 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-06-11_0853_自由時報_財經_黃金下挫！市場都在等跌到這「甜甜價」.txt</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>美元、貿易、經濟、經濟體</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CPI、Fed、降息、消費者物價指數、聯準會</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>不確定、地緣政治、貿易緊張、緊張</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>統計摘要</t>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-06-11_1033_自由時報_財經_富蘭克林華美推T+3基金贖回快速入賬 用戶資金調度更靈活.txt</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>股市、經濟</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>✘ 不符合 EPU</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-06-11_1308_自由時報_財經_1季要花近百億 租金補貼連兩季核撥逾50萬戶.txt</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>不動產、不動產業、經濟</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>補貼</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>通膨</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>統計摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>50.0%</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
